--- a/rider/weekly/2016_32.xlsx
+++ b/rider/weekly/2016_32.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>145</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>212</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>239</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>93.36</c:v>
+                  <c:v>93.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.34</c:v>
+                  <c:v>96.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.78</c:v>
+                  <c:v>101.71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.65</c:v>
+                  <c:v>99.84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.5</c:v>
+                  <c:v>97.89</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.57</c:v>
+                  <c:v>41.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.96</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D2">
-        <v>93.36</v>
+        <v>93.43</v>
       </c>
       <c r="E2">
         <v>74.78</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D3">
-        <v>96.34</v>
+        <v>96.16</v>
       </c>
       <c r="E3">
         <v>74.94</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D4">
-        <v>102.78</v>
+        <v>101.71</v>
       </c>
       <c r="E4">
         <v>75.1</v>
@@ -864,7 +864,7 @@
         <v>203</v>
       </c>
       <c r="D5">
-        <v>99.65</v>
+        <v>99.84</v>
       </c>
       <c r="E5">
         <v>75.26</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D6">
-        <v>97.5</v>
+        <v>97.89</v>
       </c>
       <c r="E6">
         <v>75.42</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7">
-        <v>41.57</v>
+        <v>41.6</v>
       </c>
       <c r="E7">
         <v>75.58</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8">
-        <v>33.96</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>75.75</v>

--- a/rider/weekly/2016_32.xlsx
+++ b/rider/weekly/2016_32.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>135</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>209</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>201</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>203</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>243</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,22 +271,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>93.43</c:v>
+                  <c:v>93.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.16</c:v>
+                  <c:v>96.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101.71</c:v>
+                  <c:v>101.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.84</c:v>
+                  <c:v>99.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.89</c:v>
+                  <c:v>97.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.6</c:v>
+                  <c:v>41.66</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>34</c:v>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D2">
-        <v>93.43</v>
+        <v>93.7</v>
       </c>
       <c r="E2">
         <v>74.78</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D3">
-        <v>96.16</v>
+        <v>96.18</v>
       </c>
       <c r="E3">
         <v>74.94</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D4">
-        <v>101.71</v>
+        <v>101.9</v>
       </c>
       <c r="E4">
         <v>75.1</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D5">
-        <v>99.84</v>
+        <v>99.9</v>
       </c>
       <c r="E5">
         <v>75.26</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D6">
-        <v>97.89</v>
+        <v>97.72</v>
       </c>
       <c r="E6">
         <v>75.42</v>
@@ -898,7 +898,7 @@
         <v>101</v>
       </c>
       <c r="D7">
-        <v>41.6</v>
+        <v>41.66</v>
       </c>
       <c r="E7">
         <v>75.58</v>
@@ -912,7 +912,7 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8">
         <v>34</v>

--- a/rider/weekly/2016_32.xlsx
+++ b/rider/weekly/2016_32.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>141</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>213</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>192</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>211</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>253</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>93.7</c:v>
+                  <c:v>93.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.18</c:v>
+                  <c:v>96.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101.9</c:v>
+                  <c:v>102.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.9</c:v>
+                  <c:v>99.47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.72</c:v>
+                  <c:v>97.74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.66</c:v>
+                  <c:v>41.64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34</c:v>
+                  <c:v>33.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D2">
-        <v>93.7</v>
+        <v>93.55</v>
       </c>
       <c r="E2">
         <v>74.78</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>96.18</v>
+        <v>96.1</v>
       </c>
       <c r="E3">
         <v>74.94</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D4">
-        <v>101.9</v>
+        <v>102.65</v>
       </c>
       <c r="E4">
         <v>75.1</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D5">
-        <v>99.9</v>
+        <v>99.47</v>
       </c>
       <c r="E5">
         <v>75.26</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D6">
-        <v>97.72</v>
+        <v>97.74</v>
       </c>
       <c r="E6">
         <v>75.42</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>41.66</v>
+        <v>41.64</v>
       </c>
       <c r="E7">
         <v>75.58</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>33.98</v>
       </c>
       <c r="E8">
         <v>75.75</v>
